--- a/ESystem.xlsx
+++ b/ESystem.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j.gellang\Documents\GitHub\ESystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="8_{21603857-16AC-47D5-9B05-D441F7BE5967}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D2D8E2-2B8C-41EC-97DD-146E3BC825C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="10380" windowWidth="23040" xWindow="0" xr2:uid="{E3587183-A281-4309-9AD2-71EB3233A36C}" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10380" activeTab="1" xr2:uid="{E3587183-A281-4309-9AD2-71EB3233A36C}"/>
   </bookViews>
   <sheets>
-    <sheet name="CreatedClients" r:id="rId1" sheetId="1"/>
-    <sheet name="ApprovedClients" r:id="rId2" sheetId="2"/>
+    <sheet name="CreatedClients" sheetId="1" r:id="rId1"/>
+    <sheet name="ApprovedClients" sheetId="2" r:id="rId2"/>
+    <sheet name="DoneInitialPay" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>FIRSTNAME</t>
   </si>
@@ -65,13 +66,21 @@
   </si>
   <si>
     <t>Tabezecu</t>
+  </si>
+  <si>
+    <t>10000353</t>
+  </si>
+  <si>
+    <t>1012-0000-00004014</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -99,16 +108,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -125,10 +134,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -163,7 +172,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -215,7 +224,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -326,21 +335,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -357,7 +366,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -409,15 +418,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89F40092-C1C0-4CFC-813A-A543F2D47854}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89F40092-C1C0-4CFC-813A-A543F2D47854}">
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
@@ -425,9 +434,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.44140625" collapsed="true"/>
+    <col min="1" max="1" width="15.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -441,37 +450,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C31C714-EBD3-46EA-8742-C92EBE3C00F5}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C31C714-EBD3-46EA-8742-C92EBE3C00F5}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="19.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="20.5546875" collapsed="true"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -491,7 +489,60 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>10000324</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB86666-39CE-4939-AD4A-A7443EC6E539}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.77734375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.77734375" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -508,7 +559,24 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ESystem.xlsx
+++ b/ESystem.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j.gellang\Documents\GitHub\ESystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D2D8E2-2B8C-41EC-97DD-146E3BC825C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{F6BE5FCB-D874-407B-A0A3-814F66AAFF09}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10380" activeTab="1" xr2:uid="{E3587183-A281-4309-9AD2-71EB3233A36C}"/>
+    <workbookView activeTab="3" windowHeight="10380" windowWidth="23040" xWindow="0" xr2:uid="{E3587183-A281-4309-9AD2-71EB3233A36C}" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="CreatedClients" sheetId="1" r:id="rId1"/>
-    <sheet name="ApprovedClients" sheetId="2" r:id="rId2"/>
-    <sheet name="DoneInitialPay" sheetId="3" r:id="rId3"/>
+    <sheet name="CreatedClients" r:id="rId1" sheetId="1"/>
+    <sheet name="ApprovedClients" r:id="rId2" sheetId="2"/>
+    <sheet name="DoneInitialPay" r:id="rId3" sheetId="3"/>
+    <sheet name="ForAmendment" r:id="rId4" sheetId="4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>FIRSTNAME</t>
   </si>
@@ -72,15 +73,13 @@
   </si>
   <si>
     <t>1012-0000-00004014</t>
-  </si>
-  <si>
-    <t>test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -108,16 +107,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -134,10 +133,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -172,7 +171,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -224,7 +223,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -335,21 +334,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -366,7 +365,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -418,15 +417,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89F40092-C1C0-4CFC-813A-A543F2D47854}">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89F40092-C1C0-4CFC-813A-A543F2D47854}">
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
@@ -434,9 +433,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -451,25 +450,25 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C31C714-EBD3-46EA-8742-C92EBE3C00F5}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C31C714-EBD3-46EA-8742-C92EBE3C00F5}">
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -489,40 +488,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>10000324</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB86666-39CE-4939-AD4A-A7443EC6E539}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB86666-39CE-4939-AD4A-A7443EC6E539}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="19.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -577,6 +562,29 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3DFDF2-1BA0-4E03-9AE8-FA35017E5358}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="21.77734375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/ESystem.xlsx
+++ b/ESystem.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j.gellang\Documents\GitHub\ESystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{F6BE5FCB-D874-407B-A0A3-814F66AAFF09}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36"/>
+  <xr:revisionPtr documentId="13_ncr:1_{77880366-F138-4F9F-8FB3-4A893DF091BD}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36"/>
   <bookViews>
-    <workbookView activeTab="3" windowHeight="10380" windowWidth="23040" xWindow="0" xr2:uid="{E3587183-A281-4309-9AD2-71EB3233A36C}" yWindow="0"/>
+    <workbookView activeTab="2" windowHeight="10380" windowWidth="23040" xWindow="0" xr2:uid="{E3587183-A281-4309-9AD2-71EB3233A36C}" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="CreatedClients" r:id="rId1" sheetId="1"/>
     <sheet name="ApprovedClients" r:id="rId2" sheetId="2"/>
     <sheet name="DoneInitialPay" r:id="rId3" sheetId="3"/>
     <sheet name="ForAmendment" r:id="rId4" sheetId="4"/>
+    <sheet name="LoanApproval" r:id="rId5" sheetId="5"/>
+    <sheet name="LoanDisbursement" r:id="rId6" sheetId="6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
   <si>
     <t>FIRSTNAME</t>
   </si>
@@ -45,34 +47,67 @@
     <t>ACC</t>
   </si>
   <si>
-    <t>Focadu</t>
-  </si>
-  <si>
-    <t>Jeradivewid</t>
-  </si>
-  <si>
-    <t>Kejiqalijug</t>
-  </si>
-  <si>
-    <t>10000351</t>
-  </si>
-  <si>
-    <t>1012-0000-00003991</t>
-  </si>
-  <si>
-    <t>Kivezi</t>
-  </si>
-  <si>
-    <t>Qokiwawice</t>
-  </si>
-  <si>
-    <t>Tabezecu</t>
-  </si>
-  <si>
     <t>10000353</t>
   </si>
   <si>
-    <t>1012-0000-00004014</t>
+    <t>Hami</t>
+  </si>
+  <si>
+    <t>Roliceta</t>
+  </si>
+  <si>
+    <t>Sahefijujik</t>
+  </si>
+  <si>
+    <t>10000376</t>
+  </si>
+  <si>
+    <t>1012-0000-00004295</t>
+  </si>
+  <si>
+    <t>Xotoce</t>
+  </si>
+  <si>
+    <t>Xufifin</t>
+  </si>
+  <si>
+    <t>Zagod</t>
+  </si>
+  <si>
+    <t>Bogavex</t>
+  </si>
+  <si>
+    <t>Pikikaluhe</t>
+  </si>
+  <si>
+    <t>Lafafodu</t>
+  </si>
+  <si>
+    <t>Yiboh</t>
+  </si>
+  <si>
+    <t>Wimuge</t>
+  </si>
+  <si>
+    <t>Dexateca</t>
+  </si>
+  <si>
+    <t>10000377</t>
+  </si>
+  <si>
+    <t>1012-0000-00004303</t>
+  </si>
+  <si>
+    <t>10000378</t>
+  </si>
+  <si>
+    <t>1012-0000-00004311</t>
+  </si>
+  <si>
+    <t>10000379</t>
+  </si>
+  <si>
+    <t>1012-0000-00004329</t>
   </si>
 </sst>
 </file>
@@ -428,7 +463,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -456,10 +491,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C31C714-EBD3-46EA-8742-C92EBE3C00F5}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -488,6 +523,40 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -497,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB86666-39CE-4939-AD4A-A7443EC6E539}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -527,38 +596,38 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3">
       <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -568,9 +637,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3DFDF2-1BA0-4E03-9AE8-FA35017E5358}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
@@ -584,6 +653,67 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC08DD95-3854-4768-BB5A-0E9B3F359668}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="18.88671875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E641CF7D-542E-4D78-8A4A-1F486333E739}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="17.0" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ESystem.xlsx
+++ b/ESystem.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j.gellang\Documents\GitHub\ESystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{77880366-F138-4F9F-8FB3-4A893DF091BD}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820DA82E-3186-4032-AAB7-C0845570A1A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="2" windowHeight="10380" windowWidth="23040" xWindow="0" xr2:uid="{E3587183-A281-4309-9AD2-71EB3233A36C}" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10380" activeTab="3" xr2:uid="{E3587183-A281-4309-9AD2-71EB3233A36C}"/>
   </bookViews>
   <sheets>
-    <sheet name="CreatedClients" r:id="rId1" sheetId="1"/>
-    <sheet name="ApprovedClients" r:id="rId2" sheetId="2"/>
-    <sheet name="DoneInitialPay" r:id="rId3" sheetId="3"/>
-    <sheet name="ForAmendment" r:id="rId4" sheetId="4"/>
-    <sheet name="LoanApproval" r:id="rId5" sheetId="5"/>
-    <sheet name="LoanDisbursement" r:id="rId6" sheetId="6"/>
+    <sheet name="CreatedClients" sheetId="1" r:id="rId1"/>
+    <sheet name="ApprovedClients" sheetId="2" r:id="rId2"/>
+    <sheet name="DoneInitialPay" sheetId="3" r:id="rId3"/>
+    <sheet name="ForAmendment" sheetId="4" r:id="rId4"/>
+    <sheet name="LoanApproval" sheetId="5" r:id="rId5"/>
+    <sheet name="LoanDisbursement" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>FIRSTNAME</t>
   </si>
@@ -108,13 +108,21 @@
   </si>
   <si>
     <t>1012-0000-00004329</t>
+  </si>
+  <si>
+    <t>Rizegana</t>
+  </si>
+  <si>
+    <t>Moyeveruhih</t>
+  </si>
+  <si>
+    <t>Pucibujoq</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -142,16 +150,17 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -168,10 +177,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -206,7 +215,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -258,7 +267,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -369,21 +378,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -400,7 +409,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -452,25 +461,25 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89F40092-C1C0-4CFC-813A-A543F2D47854}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89F40092-C1C0-4CFC-813A-A543F2D47854}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.44140625" collapsed="true"/>
+    <col min="1" max="1" width="15.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -484,14 +493,25 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C31C714-EBD3-46EA-8742-C92EBE3C00F5}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C31C714-EBD3-46EA-8742-C92EBE3C00F5}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
@@ -499,11 +519,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="19.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="20.5546875" collapsed="true"/>
+    <col min="1" max="1" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -523,7 +543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -540,7 +560,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -558,25 +578,25 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB86666-39CE-4939-AD4A-A7443EC6E539}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB86666-39CE-4939-AD4A-A7443EC6E539}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="20.77734375" collapsed="true"/>
+    <col min="1" max="1" width="19.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.77734375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -596,7 +616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -613,7 +633,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -631,21 +651,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3DFDF2-1BA0-4E03-9AE8-FA35017E5358}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3DFDF2-1BA0-4E03-9AE8-FA35017E5358}">
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.77734375" collapsed="true"/>
+    <col min="1" max="1" width="21.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -653,24 +673,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC08DD95-3854-4768-BB5A-0E9B3F359668}">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC08DD95-3854-4768-BB5A-0E9B3F359668}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -678,7 +694,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.88671875" collapsed="true"/>
+    <col min="1" max="1" width="18.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -687,13 +703,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E641CF7D-542E-4D78-8A4A-1F486333E739}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E641CF7D-542E-4D78-8A4A-1F486333E739}">
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -701,7 +717,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="1" max="1" width="17" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -715,6 +731,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ESystem.xlsx
+++ b/ESystem.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j.gellang\Documents\GitHub\ESystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820DA82E-3186-4032-AAB7-C0845570A1A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{5F54B0EC-F034-49DB-BC48-EFCB6BEEEDCF}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10380" activeTab="3" xr2:uid="{E3587183-A281-4309-9AD2-71EB3233A36C}"/>
+    <workbookView activeTab="3" windowHeight="10380" windowWidth="23040" xWindow="0" xr2:uid="{E3587183-A281-4309-9AD2-71EB3233A36C}" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="CreatedClients" sheetId="1" r:id="rId1"/>
-    <sheet name="ApprovedClients" sheetId="2" r:id="rId2"/>
-    <sheet name="DoneInitialPay" sheetId="3" r:id="rId3"/>
-    <sheet name="ForAmendment" sheetId="4" r:id="rId4"/>
-    <sheet name="LoanApproval" sheetId="5" r:id="rId5"/>
-    <sheet name="LoanDisbursement" sheetId="6" r:id="rId6"/>
+    <sheet name="CreatedClients" r:id="rId1" sheetId="1"/>
+    <sheet name="ApprovedClients" r:id="rId2" sheetId="2"/>
+    <sheet name="DoneInitialPay" r:id="rId3" sheetId="3"/>
+    <sheet name="ForAmendment" r:id="rId4" sheetId="4"/>
+    <sheet name="LoanApproval" r:id="rId5" sheetId="5"/>
+    <sheet name="LoanDisbursement" r:id="rId6" sheetId="6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>FIRSTNAME</t>
   </si>
@@ -123,6 +123,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -150,17 +151,17 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -177,10 +178,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -215,7 +216,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -267,7 +268,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -378,21 +379,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -409,7 +410,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -461,15 +462,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89F40092-C1C0-4CFC-813A-A543F2D47854}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89F40092-C1C0-4CFC-813A-A543F2D47854}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
@@ -477,9 +478,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -505,13 +506,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C31C714-EBD3-46EA-8742-C92EBE3C00F5}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C31C714-EBD3-46EA-8742-C92EBE3C00F5}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
@@ -519,11 +520,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -578,13 +579,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB86666-39CE-4939-AD4A-A7443EC6E539}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB86666-39CE-4939-AD4A-A7443EC6E539}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -592,11 +593,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="19.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -651,21 +652,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3DFDF2-1BA0-4E03-9AE8-FA35017E5358}">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3DFDF2-1BA0-4E03-9AE8-FA35017E5358}">
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="21.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -673,20 +674,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC08DD95-3854-4768-BB5A-0E9B3F359668}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC08DD95-3854-4768-BB5A-0E9B3F359668}">
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -694,7 +690,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="18.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -703,13 +699,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E641CF7D-542E-4D78-8A4A-1F486333E739}">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E641CF7D-542E-4D78-8A4A-1F486333E739}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -717,7 +713,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -731,6 +727,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/ESystem.xlsx
+++ b/ESystem.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
   <si>
     <t>FIRSTNAME</t>
   </si>
@@ -117,6 +117,33 @@
   </si>
   <si>
     <t>Pucibujoq</t>
+  </si>
+  <si>
+    <t>Fuhipok</t>
+  </si>
+  <si>
+    <t>Bumetad</t>
+  </si>
+  <si>
+    <t>Koginizani</t>
+  </si>
+  <si>
+    <t>Qusaje</t>
+  </si>
+  <si>
+    <t>Fiwixay</t>
+  </si>
+  <si>
+    <t>Behutaqez</t>
+  </si>
+  <si>
+    <t>Cuporore</t>
+  </si>
+  <si>
+    <t>Vuged</t>
+  </si>
+  <si>
+    <t>Qumed</t>
   </si>
 </sst>
 </file>
@@ -470,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89F40092-C1C0-4CFC-813A-A543F2D47854}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
@@ -503,6 +530,39 @@
       </c>
       <c r="C2" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
